--- a/samples/LubanExample/Data/_示例.xlsx
+++ b/samples/LubanExample/Data/_示例.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22536" windowHeight="11231"/>
+    <workbookView windowWidth="21120" windowHeight="10092"/>
   </bookViews>
   <sheets>
-    <sheet name="基础" sheetId="1" r:id="rId1"/>
-    <sheet name="复杂类型" sheetId="2" r:id="rId2"/>
-    <sheet name="纵表" sheetId="3" r:id="rId3"/>
-    <sheet name="列表表" sheetId="4" r:id="rId4"/>
+    <sheet name="Examples.BasicConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="Examples.AdavancedConfig#list" sheetId="2" r:id="rId2"/>
+    <sheet name="Examples.GlobalConfig#one" sheetId="3" r:id="rId3"/>
+    <sheet name="Examples.ListConfig#list" sheetId="4" r:id="rId4"/>
+    <sheet name="__被忽略" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -267,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="151">
   <si>
     <t>##var</t>
   </si>
@@ -449,12 +450,15 @@
     <t>要导出的表需要添加到Data/__tables__.xlsx中，具体格式可以参考该文件</t>
   </si>
   <si>
-    <t>也可使用自动添加，需要文件命名符合自动导入规则，一个Excel文件对应一个表</t>
+    <t>可使用官方的自动添加规则，需要文件命名符合自动导入规则，一个Excel文件对应一个表</t>
   </si>
   <si>
     <t>https://luban.doc.code-philosophy.com/docs/beginner/importtable</t>
   </si>
   <si>
+    <t>也可使用tables自动更新工具，运行“_点我更新tables”批处理即可更新</t>
+  </si>
+  <si>
     <t xml:space="preserve">运行导表工具前，需要确保已安装.NET SDK 8.0 </t>
   </si>
   <si>
@@ -467,7 +471,7 @@
     <t>https://luban.doc.code-philosophy.com/docs/manual/excel</t>
   </si>
   <si>
-    <t>表头变量命名使用snake_case，导出后可自动转换到目标语言对应的命名风格</t>
+    <t>表头变量命名使用snake_case，导出后可自动转换到目标语言对应的命名风格（非硬性要求）</t>
   </si>
   <si>
     <t>some_array_1</t>
@@ -1732,10 +1736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2225,10 +2229,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="11"/>
+      <c r="I19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="8"/>
       <c r="J19" s="10"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2244,9 +2248,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="11" t="s">
-        <v>63</v>
-      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="3"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -2256,18 +2258,12 @@
       <c r="M20" s="14"/>
     </row>
     <row r="21" ht="15.6" spans="1:13">
-      <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="3"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2276,19 +2272,61 @@
       <c r="L21" s="3"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:2">
+    <row r="22" ht="15.6" spans="1:13">
+      <c r="A22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:13">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>66</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="25" ht="15.6" spans="1:2">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" r:id="rId3" display="https://luban.doc.code-philosophy.com/docs/manual/excel" tooltip="https://luban.doc.code-philosophy.com/docs/manual/excel"/>
-    <hyperlink ref="H19" r:id="rId4" display="https://luban.doc.code-philosophy.com/docs/beginner/importtable"/>
-    <hyperlink ref="F20" r:id="rId5" display="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0" tooltip="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0"/>
+    <hyperlink ref="C23" r:id="rId3" display="https://luban.doc.code-philosophy.com/docs/manual/excel" tooltip="https://luban.doc.code-philosophy.com/docs/manual/excel"/>
+    <hyperlink ref="F22" r:id="rId4" display="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0" tooltip="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0"/>
+    <hyperlink ref="I19" r:id="rId5" display="https://luban.doc.code-philosophy.com/docs/beginner/importtable"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2302,7 +2340,7 @@
   <sheetPr/>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -2325,30 +2363,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:11">
@@ -2356,30 +2394,30 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:11">
@@ -2387,52 +2425,52 @@
         <v>26</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:11">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" s="3">
         <v>1001</v>
@@ -2441,31 +2479,31 @@
         <v>100</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="3">
         <v>2001</v>
@@ -2474,13 +2512,13 @@
         <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:10">
@@ -2513,7 +2551,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2528,7 +2566,7 @@
   <sheetData>
     <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -2546,32 +2584,32 @@
     </row>
     <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="3">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3">
         <v>20</v>
@@ -2579,14 +2617,14 @@
     </row>
     <row r="4" ht="15.6" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3">
         <v>28800</v>
@@ -2661,7 +2699,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2682,16 +2720,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="15.6" spans="1:6">
@@ -2722,57 +2760,57 @@
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="15.6" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3">
         <v>126</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="1" ht="15.6" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="3">
         <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="3"/>
       <c r="I5" s="3"/>
@@ -2780,76 +2818,76 @@
     <row r="6" customFormat="1" ht="15.6" spans="1:9">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="1" ht="15.6" spans="2:9">
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3">
         <v>175</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" customFormat="1" ht="15.6" spans="2:9">
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E8" s="3">
         <v>38</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="2:9">
       <c r="B9" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E9" s="3">
         <v>152</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
@@ -2986,4 +3024,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/samples/LubanExample/Data/_示例.xlsx
+++ b/samples/LubanExample/Data/_示例.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Examples.ListConfig#list" sheetId="4" r:id="rId4"/>
     <sheet name="__被忽略" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,9 +40,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>字段名称行</t>
         </r>
@@ -52,9 +52,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>默认情况下，取第一个字段为主键；通过额外配置，可实现无主键、多主键（联合索引）</t>
         </r>
@@ -64,9 +64,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>使用“#”来注释字段，被注释的字段将不会被导出</t>
         </r>
@@ -76,9 +76,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>字段类型行</t>
         </r>
@@ -88,9 +88,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>留空默认值为空字符串</t>
         </r>
@@ -100,9 +100,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>数值类型留空默认值为0</t>
         </r>
@@ -112,9 +112,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>这是一个枚举类型，可在Data/__enums__.xlsx中定义，配置好后可以直接填写枚举的别名，导出时将会自动映射到枚举的值</t>
         </r>
@@ -124,9 +124,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>默认值为false</t>
         </r>
@@ -136,9 +136,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>分组行（可选），用于指定字段属于哪个组，例如c代表字段仅导出到客户端，s代表导出到服务端，留空默认对所有分组导出。</t>
         </r>
@@ -148,12 +148,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
-          <t>注释行，如果注释行放在第一行，则应该写成“##comment”
-注释行的内容在导出后会成为代码中字段的文档注释</t>
+          <t>注释行，如果注释行放在第一行，则应该写成“##comment”_x000A_注释行的内容在导出后会成为代码中字段的文档注释</t>
         </r>
       </text>
     </comment>
@@ -161,9 +160,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>使用“##”来注释一行，注释掉的行将会被忽略，无论填了什么</t>
         </r>
@@ -183,13 +182,11 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
-          <t xml:space="preserve">分隔符号支持自定义
-sep=,表示用英文逗号分隔数组元素
-</t>
+          <t xml:space="preserve">分隔符号支持自定义_x000A_sep=,表示用英文逗号分隔数组元素_x000A_</t>
         </r>
       </text>
     </comment>
@@ -197,9 +194,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>sep=,;表示字典的键与值用逗号分隔，字典元素间用分号分隔</t>
         </r>
@@ -209,9 +206,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>这是一个自定义类型，在Defines目录下以xml文件定义，或在Data/__beans.xslx中定义</t>
         </r>
@@ -221,9 +218,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>sep=,表示每个字段间用逗号分隔</t>
         </r>
@@ -233,9 +230,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>这种情况下，string留空需要用两个引号来表示</t>
         </r>
@@ -255,9 +252,9 @@
       <text>
         <r>
           <rPr>
-            <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
+            <sz val="9"/>
           </rPr>
           <t>纵表需要加上#column</t>
         </r>
@@ -268,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>##var</t>
   </si>
@@ -733,7 +730,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -916,11 +913,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1239,192 +1231,192 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="5" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="6" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="0" applyFont="0" fillId="3" applyFill="1" borderId="2" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="8" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="9" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="10" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="11" applyFont="1" fillId="0" applyFill="0" borderId="3" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="12" applyFont="1" fillId="0" applyFill="0" borderId="3" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="0" applyFill="0" borderId="4" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="13" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="14" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="15" applyFont="1" fillId="5" applyFill="1" borderId="6" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="16" applyFont="1" fillId="5" applyFill="1" borderId="5" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="17" applyFont="1" fillId="6" applyFill="1" borderId="7" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="18" applyFont="1" fillId="0" applyFill="0" borderId="8" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="19" applyFont="1" fillId="0" applyFill="0" borderId="9" applyBorder="1" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="20" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="21" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="22" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="24" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="0" fontId="23" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="22"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="22" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1756,10 +1748,10 @@
     <col min="10" max="10" width="20.8888888888889" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="20.5555555555556" customWidth="1"/>
-    <col min="13" max="13" width="17.6666666666667" style="7" customWidth="1"/>
+    <col min="13" max="13" width="17.6666666666667" customWidth="1" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:13">
+    <row r="1" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:13">
+    <row r="2" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:13">
+    <row r="3" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +1856,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" ht="15.6" spans="1:13">
+    <row r="4" ht="15.6">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1905,7 +1897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:13">
+    <row r="5" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="8">
         <v>1001</v>
@@ -1944,7 +1936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:13">
+    <row r="6" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="8">
         <v>2001</v>
@@ -1983,7 +1975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:13">
+    <row r="7" ht="15.6">
       <c r="A7" s="3"/>
       <c r="B7" s="8">
         <v>3001</v>
@@ -2022,7 +2014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:13">
+    <row r="8" ht="15.6">
       <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
@@ -2043,7 +2035,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" ht="15.6" spans="1:13">
+    <row r="9" ht="15.6">
       <c r="A9" s="3"/>
       <c r="B9" s="8">
         <v>3003</v>
@@ -2078,7 +2070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:13">
+    <row r="10" ht="15.6">
       <c r="A10" s="3"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2093,7 +2085,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" ht="15.6" spans="1:13">
+    <row r="11" ht="15.6">
       <c r="A11" s="3"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2108,7 +2100,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="14"/>
     </row>
-    <row r="12" ht="15.6" spans="1:13">
+    <row r="12" ht="15.6">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2123,7 +2115,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="14"/>
     </row>
-    <row r="13" ht="15.6" spans="1:13">
+    <row r="13" ht="15.6">
       <c r="A13" s="3"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2138,7 +2130,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="14"/>
     </row>
-    <row r="14" ht="15.6" spans="1:13">
+    <row r="14" ht="15.6">
       <c r="A14" s="3"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2153,7 +2145,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" ht="15.6" spans="1:13">
+    <row r="15" ht="15.6">
       <c r="A15" s="3"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2168,7 +2160,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" ht="15.6" spans="1:13">
+    <row r="16" ht="15.6">
       <c r="A16" s="3"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2183,7 +2175,7 @@
       <c r="L16" s="3"/>
       <c r="M16" s="14"/>
     </row>
-    <row r="17" ht="15.6" spans="1:13">
+    <row r="17" ht="15.6">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2198,7 +2190,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="14"/>
     </row>
-    <row r="18" ht="15.6" spans="1:13">
+    <row r="18" ht="15.6">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -2217,7 +2209,7 @@
       <c r="L18" s="3"/>
       <c r="M18" s="14"/>
     </row>
-    <row r="19" ht="15.6" spans="1:13">
+    <row r="19" ht="15.6">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -2238,7 +2230,7 @@
       <c r="L19" s="3"/>
       <c r="M19" s="14"/>
     </row>
-    <row r="20" ht="15.6" spans="1:13">
+    <row r="20" ht="15.6">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
@@ -2257,7 +2249,7 @@
       <c r="L20" s="3"/>
       <c r="M20" s="14"/>
     </row>
-    <row r="21" ht="15.6" spans="1:13">
+    <row r="21" ht="15.6">
       <c r="A21" s="9"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2272,7 +2264,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:13">
+    <row r="22" ht="15.6">
       <c r="A22" s="9" t="s">
         <v>26</v>
       </c>
@@ -2293,7 +2285,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="14"/>
     </row>
-    <row r="23" ht="15.6" spans="1:13">
+    <row r="23" ht="15.6">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -2314,7 +2306,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="14"/>
     </row>
-    <row r="25" ht="15.6" spans="1:2">
+    <row r="25" ht="15.6">
       <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
@@ -2324,9 +2316,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId3" display="https://luban.doc.code-philosophy.com/docs/manual/excel" tooltip="https://luban.doc.code-philosophy.com/docs/manual/excel"/>
-    <hyperlink ref="F22" r:id="rId4" display="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0" tooltip="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0"/>
-    <hyperlink ref="I19" r:id="rId5" display="https://luban.doc.code-philosophy.com/docs/beginner/importtable"/>
+    <hyperlink ref="I19" display="https://luban.doc.code-philosophy.com/docs/beginner/importtable" r:id="rId3"/>
+    <hyperlink ref="F22" display="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0" tooltip="https://dotnet.microsoft.com/zh-cn/download/dotnet/8.0" r:id="rId4"/>
+    <hyperlink ref="C23" display="https://luban.doc.code-philosophy.com/docs/manual/excel" tooltip="https://luban.doc.code-philosophy.com/docs/manual/excel" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2349,7 +2341,7 @@
     <col min="2" max="2" width="28.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="32.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="34.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="32.6666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.6666666666667" customWidth="1" style="5"/>
     <col min="6" max="6" width="38.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="9.22222222222222" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
@@ -2358,7 +2350,7 @@
     <col min="11" max="11" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:11">
+    <row r="1" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:11">
+    <row r="2" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2420,7 +2412,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
+    <row r="3" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2455,7 +2447,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:11">
+    <row r="4" ht="15.6">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>94</v>
@@ -2488,7 +2480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:11">
+    <row r="5" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>102</v>
@@ -2521,7 +2513,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:10">
+    <row r="6" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2534,7 +2526,7 @@
       <c r="J6" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
   </mergeCells>
@@ -2564,7 +2556,7 @@
     <col min="7" max="7" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -2578,11 +2570,11 @@
         <v>26</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" ht="15.6">
       <c r="A2" s="3" t="s">
         <v>111</v>
       </c>
@@ -2596,11 +2588,11 @@
       <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
+    <row r="3" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
@@ -2615,7 +2607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:5">
+    <row r="4" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>116</v>
       </c>
@@ -2630,56 +2622,56 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
+    <row r="5" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="15.6" spans="1:5">
+    <row r="6" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="15.6" spans="1:5">
+    <row r="7" ht="15.6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="15.6" spans="1:5">
+    <row r="8" ht="15.6">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="15.6" spans="1:5">
+    <row r="9" ht="15.6">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.6" spans="1:5">
+    <row r="10" ht="15.6">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="15.6" spans="1:5">
+    <row r="11" ht="15.6">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="15.6" spans="1:5">
+    <row r="12" ht="15.6">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2704,7 +2696,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="12.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="11.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="15.5555555555556" customWidth="1"/>
@@ -2712,7 +2704,7 @@
     <col min="6" max="6" width="22.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15.6" spans="1:6">
+    <row r="1" ht="15.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2732,7 +2724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15.6" spans="1:6">
+    <row r="2" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -2752,7 +2744,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15.6" spans="1:6">
+    <row r="3" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2772,7 +2764,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="15.6" spans="1:9">
+    <row r="4" ht="15.6">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>126</v>
@@ -2790,12 +2782,12 @@
         <v>129</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" t="s">
+      <c r="H4" s="0" t="s">
         <v>130</v>
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" customFormat="1" ht="15.6" spans="1:9">
+    <row r="5" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>131</v>
@@ -2815,7 +2807,7 @@
       <c r="G5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="15.6" spans="1:9">
+    <row r="6" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>135</v>
@@ -2835,7 +2827,7 @@
       <c r="G6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="15.6" spans="2:9">
+    <row r="7" ht="15.6">
       <c r="B7" s="3" t="s">
         <v>139</v>
       </c>
@@ -2854,7 +2846,7 @@
       <c r="G7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" customFormat="1" ht="15.6" spans="2:9">
+    <row r="8" ht="15.6">
       <c r="B8" s="3" t="s">
         <v>143</v>
       </c>
@@ -2873,7 +2865,7 @@
       <c r="G8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="15.6" spans="2:9">
+    <row r="9" ht="15.6">
       <c r="B9" s="3" t="s">
         <v>147</v>
       </c>
@@ -2892,7 +2884,7 @@
       <c r="G9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" customFormat="1" ht="15.6" spans="2:7">
+    <row r="10" ht="15.6">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2900,7 +2892,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" customFormat="1" ht="15.6" spans="2:7">
+    <row r="11" ht="15.6">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2908,112 +2900,112 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" customFormat="1" ht="15.6" spans="2:6">
+    <row r="12" ht="15.6">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customFormat="1" ht="15.6" spans="2:6">
+    <row r="13" ht="15.6">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="15.6" spans="2:6">
+    <row r="14" ht="15.6">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="15.6" spans="2:6">
+    <row r="15" ht="15.6">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="15.6" spans="2:6">
+    <row r="16" ht="15.6">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="15.6" spans="2:6">
+    <row r="17" ht="15.6">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="15.6" spans="2:6">
+    <row r="18" ht="15.6">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="15.6" spans="2:6">
+    <row r="19" ht="15.6">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="15.6" spans="2:6">
+    <row r="20" ht="15.6">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" customFormat="1" ht="15.6" spans="2:6">
+    <row r="21" ht="15.6">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" customFormat="1" ht="15.6" spans="2:6">
+    <row r="22" ht="15.6">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" customFormat="1" ht="15.6" spans="2:6">
+    <row r="23" ht="15.6">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" customFormat="1" ht="15.6" spans="2:6">
+    <row r="24" ht="15.6">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" customFormat="1" ht="15.6" spans="2:6">
+    <row r="25" ht="15.6">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" customFormat="1" ht="15.6" spans="2:6">
+    <row r="26" ht="15.6">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" customFormat="1" ht="15.6" spans="2:6">
+    <row r="27" ht="15.6">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -3029,7 +3021,6 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L27" sqref="L27"/>
